--- a/biology/Médecine/Nociception/Nociception.xlsx
+++ b/biology/Médecine/Nociception/Nociception.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La nociception est une fonction défensive présente chez les vertébrés ainsi que chez les invertébrés[1]. C'est une fonction permettant l'intégration, au niveau du système nerveux central, d'un stimulus potentiellement nocif via l'activation des nocicepteurs cutanés, viscéraux, musculaires et articulaires[1]. Le transport de l'information sensorielle par les nerfs se fait de la périphérie (lieu de transduction d'un message potentiellement nocif en nociception) jusqu'au thalamus. La nociception est souvent décrite comme transmettant les messages "douloureux", cependant cette conception est erronée[1],[2],[3]. En effet la nociception et la douleur sont deux choses différentes [1],[4]. Il existe un grand corpus de preuve dissociant la nociception de la douleur, montrant qu'il n'existe pas de lien de causalité entre le premier et le second [5],[6],[7],[8].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La nociception est une fonction défensive présente chez les vertébrés ainsi que chez les invertébrés. C'est une fonction permettant l'intégration, au niveau du système nerveux central, d'un stimulus potentiellement nocif via l'activation des nocicepteurs cutanés, viscéraux, musculaires et articulaires. Le transport de l'information sensorielle par les nerfs se fait de la périphérie (lieu de transduction d'un message potentiellement nocif en nociception) jusqu'au thalamus. La nociception est souvent décrite comme transmettant les messages "douloureux", cependant cette conception est erronée. En effet la nociception et la douleur sont deux choses différentes ,. Il existe un grand corpus de preuve dissociant la nociception de la douleur, montrant qu'il n'existe pas de lien de causalité entre le premier et le second .
 </t>
         </is>
       </c>
